--- a/utils/localisation_script/excel_to_json/ta/o.xlsx
+++ b/utils/localisation_script/excel_to_json/ta/o.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umair.manzoor/Projects/Open-Speech-EkStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/ta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/ta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D8EEBF-3684-2A40-8E7A-09460A7BE11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C579C66-176A-F24D-A9D4-B0E01CB22D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delta" sheetId="7" r:id="rId1"/>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Page Name</t>
-  </si>
-  <si>
-    <t>English Copy</t>
   </si>
   <si>
     <t>All functional Pages</t>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>Tamil</t>
+  </si>
+  <si>
+    <t>English copy</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -569,7 +569,7 @@
     <col min="8" max="16384" width="14.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="14">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -579,61 +579,61 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28">
       <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14">
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14">
       <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="126">
       <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -641,10 +641,10 @@
     </row>
     <row r="9" spans="1:7" ht="14">
       <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -665,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
@@ -677,13 +677,13 @@
     <row r="13" spans="1:7" ht="98">
       <c r="C13" s="7"/>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14">
@@ -695,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14">
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="11">
         <v>2</v>
@@ -715,13 +715,13 @@
     <row r="16" spans="1:7" ht="98">
       <c r="C16" s="7"/>
       <c r="D16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="14">
@@ -733,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="14">
@@ -741,7 +741,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="9">
         <v>3</v>
@@ -753,13 +753,13 @@
     <row r="19" spans="3:7" ht="84">
       <c r="C19" s="7"/>
       <c r="D19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="14">
@@ -771,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="14">
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="9">
         <v>4</v>
@@ -791,13 +791,13 @@
     <row r="22" spans="3:7" ht="112">
       <c r="C22" s="7"/>
       <c r="D22" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="14">
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
